--- a/medicine/Psychotrope/Brasserie_Rosengarten/Brasserie_Rosengarten.xlsx
+++ b/medicine/Psychotrope/Brasserie_Rosengarten/Brasserie_Rosengarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Rosengarten (nom complet en allemand : Brauerei Rosengarten AG) est une brasserie suisse qui a son siège à Einsiedeln et qui produit la Einsiedler Bier.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les activités brassicoles de la Brasserie Rosengarten remontent à 1872. En 1905 elle est reprise par Franz Lindinger. Après sa mort en 1927, elle est reprise par une société en nom collectif[2]. 
-Après son mariage avec Anna Marty, une nièce de Franz Lindinger, l'entreprise passe en mains de Alois Gmür, père du conseiller national du Parti démocrate-chrétien du même nom, et directeur actuel[3]. En 1956 la société devient une société anonyme et prend le nom de Brauerei Rosengarten AG.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les activités brassicoles de la Brasserie Rosengarten remontent à 1872. En 1905 elle est reprise par Franz Lindinger. Après sa mort en 1927, elle est reprise par une société en nom collectif. 
+Après son mariage avec Anna Marty, une nièce de Franz Lindinger, l'entreprise passe en mains de Alois Gmür, père du conseiller national du Parti démocrate-chrétien du même nom, et directeur actuel. En 1956 la société devient une société anonyme et prend le nom de Brauerei Rosengarten AG.
 </t>
         </is>
       </c>
@@ -544,17 +558,19 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alpenbier naturtrüb (Bière bio)
 Dinkel
 Lager dunkel
 Lager hell
-Maisgold, la brasserie est spécialement connue pour cette bière au maïs[4].
+Maisgold, la brasserie est spécialement connue pour cette bière au maïs.
 Spezial dunkel
 Spezial hell
-Schwyzer Bockbier, lancé en 2011[5].
-Einsiedler Weizen, leur produit le plus récent, lancé en 2013[2].</t>
+Schwyzer Bockbier, lancé en 2011.
+Einsiedler Weizen, leur produit le plus récent, lancé en 2013.</t>
         </is>
       </c>
     </row>
